--- a/work/Оснастка/Штампы и приспособления.xlsx
+++ b/work/Оснастка/Штампы и приспособления.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="234">
   <si>
     <t>Шифр оснастки</t>
   </si>
@@ -720,6 +720,30 @@
   </si>
   <si>
     <t>Элемент бимета</t>
+  </si>
+  <si>
+    <t>1681-6497</t>
+  </si>
+  <si>
+    <t>№8214</t>
+  </si>
+  <si>
+    <t>757468.007</t>
+  </si>
+  <si>
+    <t>Ламель 007</t>
+  </si>
+  <si>
+    <t>1740-5373</t>
+  </si>
+  <si>
+    <t>8БК254.021</t>
+  </si>
+  <si>
+    <t>Поводок 021</t>
+  </si>
+  <si>
+    <t>№3948, №3947, №3946, №3198</t>
   </si>
 </sst>
 </file>
@@ -904,7 +928,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -995,18 +1019,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1025,6 +1037,21 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1359,24 +1386,24 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="18.75">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
     </row>
     <row r="4" spans="1:6" ht="15.75">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
@@ -1433,7 +1460,7 @@
   <dimension ref="A1:F132"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43:C132"/>
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2125,7 +2152,7 @@
       <c r="B40" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="C40" s="43" t="s">
+      <c r="C40" s="39" t="s">
         <v>168</v>
       </c>
       <c r="D40" s="22" t="s">
@@ -2253,680 +2280,696 @@
       <c r="F47" s="8"/>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="38"/>
-      <c r="B48" s="38"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10"/>
+      <c r="A48" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="B48" s="44" t="s">
+        <v>227</v>
+      </c>
+      <c r="C48" s="44" t="s">
+        <v>228</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>229</v>
+      </c>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
     </row>
-    <row r="49" spans="1:6">
-      <c r="A49" s="38"/>
-      <c r="B49" s="38"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
+    <row r="49" spans="1:6" ht="30">
+      <c r="A49" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="B49" s="44" t="s">
+        <v>233</v>
+      </c>
+      <c r="C49" s="44" t="s">
+        <v>231</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>232</v>
+      </c>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="38"/>
-      <c r="B50" s="38"/>
+      <c r="A50" s="34"/>
+      <c r="B50" s="34"/>
       <c r="C50" s="10"/>
       <c r="D50" s="10"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="38"/>
-      <c r="B51" s="38"/>
+      <c r="A51" s="34"/>
+      <c r="B51" s="34"/>
       <c r="C51" s="10"/>
       <c r="D51" s="10"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="38"/>
-      <c r="B52" s="38"/>
+      <c r="A52" s="34"/>
+      <c r="B52" s="34"/>
       <c r="C52" s="10"/>
       <c r="D52" s="10"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="38"/>
-      <c r="B53" s="38"/>
+      <c r="A53" s="34"/>
+      <c r="B53" s="34"/>
       <c r="C53" s="10"/>
       <c r="D53" s="10"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="38"/>
-      <c r="B54" s="38"/>
+      <c r="A54" s="34"/>
+      <c r="B54" s="34"/>
       <c r="C54" s="10"/>
       <c r="D54" s="10"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="38"/>
-      <c r="B55" s="38"/>
+      <c r="A55" s="34"/>
+      <c r="B55" s="34"/>
       <c r="C55" s="10"/>
       <c r="D55" s="10"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="38"/>
-      <c r="B56" s="38"/>
+      <c r="A56" s="34"/>
+      <c r="B56" s="34"/>
       <c r="C56" s="10"/>
       <c r="D56" s="10"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="38"/>
-      <c r="B57" s="38"/>
+      <c r="A57" s="34"/>
+      <c r="B57" s="34"/>
       <c r="C57" s="10"/>
       <c r="D57" s="10"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="38"/>
-      <c r="B58" s="38"/>
+      <c r="A58" s="34"/>
+      <c r="B58" s="34"/>
       <c r="C58" s="10"/>
       <c r="D58" s="10"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="38"/>
-      <c r="B59" s="38"/>
+      <c r="A59" s="34"/>
+      <c r="B59" s="34"/>
       <c r="C59" s="10"/>
       <c r="D59" s="10"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="38"/>
-      <c r="B60" s="38"/>
+      <c r="A60" s="34"/>
+      <c r="B60" s="34"/>
       <c r="C60" s="10"/>
       <c r="D60" s="10"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="38"/>
-      <c r="B61" s="38"/>
+      <c r="A61" s="34"/>
+      <c r="B61" s="34"/>
       <c r="C61" s="10"/>
       <c r="D61" s="10"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="38"/>
-      <c r="B62" s="38"/>
+      <c r="A62" s="34"/>
+      <c r="B62" s="34"/>
       <c r="C62" s="10"/>
       <c r="D62" s="10"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="38"/>
-      <c r="B63" s="38"/>
+      <c r="A63" s="34"/>
+      <c r="B63" s="34"/>
       <c r="C63" s="10"/>
       <c r="D63" s="10"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="38"/>
-      <c r="B64" s="38"/>
+      <c r="A64" s="34"/>
+      <c r="B64" s="34"/>
       <c r="C64" s="10"/>
       <c r="D64" s="10"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="38"/>
-      <c r="B65" s="38"/>
+      <c r="A65" s="34"/>
+      <c r="B65" s="34"/>
       <c r="C65" s="10"/>
       <c r="D65" s="10"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="38"/>
-      <c r="B66" s="38"/>
+      <c r="A66" s="34"/>
+      <c r="B66" s="34"/>
       <c r="C66" s="10"/>
       <c r="D66" s="10"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="38"/>
-      <c r="B67" s="38"/>
+      <c r="A67" s="34"/>
+      <c r="B67" s="34"/>
       <c r="C67" s="10"/>
       <c r="D67" s="10"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="38"/>
-      <c r="B68" s="38"/>
+      <c r="A68" s="34"/>
+      <c r="B68" s="34"/>
       <c r="C68" s="10"/>
       <c r="D68" s="10"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="38"/>
-      <c r="B69" s="38"/>
+      <c r="A69" s="34"/>
+      <c r="B69" s="34"/>
       <c r="C69" s="10"/>
       <c r="D69" s="10"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" s="38"/>
-      <c r="B70" s="38"/>
+      <c r="A70" s="34"/>
+      <c r="B70" s="34"/>
       <c r="C70" s="10"/>
       <c r="D70" s="10"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
     </row>
     <row r="71" spans="1:6">
-      <c r="A71" s="38"/>
-      <c r="B71" s="38"/>
+      <c r="A71" s="34"/>
+      <c r="B71" s="34"/>
       <c r="C71" s="10"/>
       <c r="D71" s="10"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
     </row>
     <row r="72" spans="1:6">
-      <c r="A72" s="38"/>
-      <c r="B72" s="38"/>
+      <c r="A72" s="34"/>
+      <c r="B72" s="34"/>
       <c r="C72" s="10"/>
       <c r="D72" s="10"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
     </row>
     <row r="73" spans="1:6">
-      <c r="A73" s="38"/>
-      <c r="B73" s="38"/>
+      <c r="A73" s="34"/>
+      <c r="B73" s="34"/>
       <c r="C73" s="10"/>
       <c r="D73" s="10"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
     </row>
     <row r="74" spans="1:6">
-      <c r="A74" s="38"/>
-      <c r="B74" s="38"/>
+      <c r="A74" s="34"/>
+      <c r="B74" s="34"/>
       <c r="C74" s="10"/>
       <c r="D74" s="10"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
     </row>
     <row r="75" spans="1:6">
-      <c r="A75" s="38"/>
-      <c r="B75" s="38"/>
+      <c r="A75" s="34"/>
+      <c r="B75" s="34"/>
       <c r="C75" s="10"/>
       <c r="D75" s="10"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
     </row>
     <row r="76" spans="1:6">
-      <c r="A76" s="38"/>
-      <c r="B76" s="38"/>
+      <c r="A76" s="34"/>
+      <c r="B76" s="34"/>
       <c r="C76" s="10"/>
       <c r="D76" s="10"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
     </row>
     <row r="77" spans="1:6">
-      <c r="A77" s="38"/>
-      <c r="B77" s="38"/>
+      <c r="A77" s="34"/>
+      <c r="B77" s="34"/>
       <c r="C77" s="10"/>
       <c r="D77" s="10"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
     </row>
     <row r="78" spans="1:6">
-      <c r="A78" s="38"/>
-      <c r="B78" s="38"/>
+      <c r="A78" s="34"/>
+      <c r="B78" s="34"/>
       <c r="C78" s="10"/>
       <c r="D78" s="10"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
     </row>
     <row r="79" spans="1:6">
-      <c r="A79" s="38"/>
-      <c r="B79" s="38"/>
+      <c r="A79" s="34"/>
+      <c r="B79" s="34"/>
       <c r="C79" s="10"/>
       <c r="D79" s="10"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
     </row>
     <row r="80" spans="1:6">
-      <c r="A80" s="38"/>
-      <c r="B80" s="38"/>
+      <c r="A80" s="34"/>
+      <c r="B80" s="34"/>
       <c r="C80" s="10"/>
       <c r="D80" s="10"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
     </row>
     <row r="81" spans="1:6">
-      <c r="A81" s="38"/>
-      <c r="B81" s="38"/>
+      <c r="A81" s="34"/>
+      <c r="B81" s="34"/>
       <c r="C81" s="10"/>
       <c r="D81" s="10"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
     </row>
     <row r="82" spans="1:6">
-      <c r="A82" s="38"/>
-      <c r="B82" s="38"/>
+      <c r="A82" s="34"/>
+      <c r="B82" s="34"/>
       <c r="C82" s="10"/>
       <c r="D82" s="10"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
     </row>
     <row r="83" spans="1:6">
-      <c r="A83" s="38"/>
-      <c r="B83" s="38"/>
+      <c r="A83" s="34"/>
+      <c r="B83" s="34"/>
       <c r="C83" s="10"/>
       <c r="D83" s="10"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
     </row>
     <row r="84" spans="1:6">
-      <c r="A84" s="38"/>
-      <c r="B84" s="38"/>
+      <c r="A84" s="34"/>
+      <c r="B84" s="34"/>
       <c r="C84" s="10"/>
       <c r="D84" s="10"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
     </row>
     <row r="85" spans="1:6">
-      <c r="A85" s="38"/>
-      <c r="B85" s="38"/>
+      <c r="A85" s="34"/>
+      <c r="B85" s="34"/>
       <c r="C85" s="10"/>
       <c r="D85" s="10"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
     </row>
     <row r="86" spans="1:6">
-      <c r="A86" s="38"/>
-      <c r="B86" s="38"/>
+      <c r="A86" s="34"/>
+      <c r="B86" s="34"/>
       <c r="C86" s="10"/>
       <c r="D86" s="10"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
     </row>
     <row r="87" spans="1:6">
-      <c r="A87" s="38"/>
-      <c r="B87" s="38"/>
+      <c r="A87" s="34"/>
+      <c r="B87" s="34"/>
       <c r="C87" s="10"/>
       <c r="D87" s="10"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
     </row>
     <row r="88" spans="1:6">
-      <c r="A88" s="38"/>
-      <c r="B88" s="38"/>
+      <c r="A88" s="34"/>
+      <c r="B88" s="34"/>
       <c r="C88" s="10"/>
       <c r="D88" s="10"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
     </row>
     <row r="89" spans="1:6">
-      <c r="A89" s="38"/>
-      <c r="B89" s="38"/>
+      <c r="A89" s="34"/>
+      <c r="B89" s="34"/>
       <c r="C89" s="10"/>
       <c r="D89" s="10"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
     </row>
     <row r="90" spans="1:6">
-      <c r="A90" s="38"/>
-      <c r="B90" s="38"/>
+      <c r="A90" s="34"/>
+      <c r="B90" s="34"/>
       <c r="C90" s="10"/>
       <c r="D90" s="10"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
     </row>
     <row r="91" spans="1:6">
-      <c r="A91" s="38"/>
-      <c r="B91" s="38"/>
+      <c r="A91" s="34"/>
+      <c r="B91" s="34"/>
       <c r="C91" s="10"/>
       <c r="D91" s="10"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
     </row>
     <row r="92" spans="1:6">
-      <c r="A92" s="38"/>
-      <c r="B92" s="38"/>
+      <c r="A92" s="34"/>
+      <c r="B92" s="34"/>
       <c r="C92" s="10"/>
       <c r="D92" s="10"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
     </row>
     <row r="93" spans="1:6">
-      <c r="A93" s="38"/>
-      <c r="B93" s="38"/>
+      <c r="A93" s="34"/>
+      <c r="B93" s="34"/>
       <c r="C93" s="10"/>
       <c r="D93" s="10"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
     </row>
     <row r="94" spans="1:6">
-      <c r="A94" s="38"/>
-      <c r="B94" s="38"/>
+      <c r="A94" s="34"/>
+      <c r="B94" s="34"/>
       <c r="C94" s="10"/>
       <c r="D94" s="10"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
     </row>
     <row r="95" spans="1:6">
-      <c r="A95" s="38"/>
-      <c r="B95" s="38"/>
+      <c r="A95" s="34"/>
+      <c r="B95" s="34"/>
       <c r="C95" s="10"/>
       <c r="D95" s="10"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
     </row>
     <row r="96" spans="1:6">
-      <c r="A96" s="38"/>
-      <c r="B96" s="38"/>
+      <c r="A96" s="34"/>
+      <c r="B96" s="34"/>
       <c r="C96" s="10"/>
       <c r="D96" s="10"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
     </row>
     <row r="97" spans="1:6">
-      <c r="A97" s="38"/>
-      <c r="B97" s="38"/>
+      <c r="A97" s="34"/>
+      <c r="B97" s="34"/>
       <c r="C97" s="10"/>
       <c r="D97" s="10"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
     </row>
     <row r="98" spans="1:6">
-      <c r="A98" s="38"/>
-      <c r="B98" s="38"/>
+      <c r="A98" s="34"/>
+      <c r="B98" s="34"/>
       <c r="C98" s="10"/>
       <c r="D98" s="10"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
     </row>
     <row r="99" spans="1:6">
-      <c r="A99" s="38"/>
-      <c r="B99" s="38"/>
+      <c r="A99" s="34"/>
+      <c r="B99" s="34"/>
       <c r="C99" s="10"/>
       <c r="D99" s="10"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
     </row>
     <row r="100" spans="1:6">
-      <c r="A100" s="38"/>
-      <c r="B100" s="38"/>
+      <c r="A100" s="34"/>
+      <c r="B100" s="34"/>
       <c r="C100" s="10"/>
       <c r="D100" s="10"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
     </row>
     <row r="101" spans="1:6">
-      <c r="A101" s="38"/>
-      <c r="B101" s="38"/>
+      <c r="A101" s="34"/>
+      <c r="B101" s="34"/>
       <c r="C101" s="10"/>
       <c r="D101" s="10"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
     </row>
     <row r="102" spans="1:6">
-      <c r="A102" s="38"/>
-      <c r="B102" s="38"/>
+      <c r="A102" s="34"/>
+      <c r="B102" s="34"/>
       <c r="C102" s="10"/>
       <c r="D102" s="10"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
     </row>
     <row r="103" spans="1:6">
-      <c r="A103" s="38"/>
-      <c r="B103" s="38"/>
+      <c r="A103" s="34"/>
+      <c r="B103" s="34"/>
       <c r="C103" s="10"/>
       <c r="D103" s="10"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
     </row>
     <row r="104" spans="1:6">
-      <c r="A104" s="38"/>
-      <c r="B104" s="38"/>
+      <c r="A104" s="34"/>
+      <c r="B104" s="34"/>
       <c r="C104" s="10"/>
       <c r="D104" s="10"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
     </row>
     <row r="105" spans="1:6">
-      <c r="A105" s="38"/>
-      <c r="B105" s="38"/>
+      <c r="A105" s="34"/>
+      <c r="B105" s="34"/>
       <c r="C105" s="10"/>
       <c r="D105" s="10"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
     </row>
     <row r="106" spans="1:6">
-      <c r="A106" s="38"/>
-      <c r="B106" s="38"/>
+      <c r="A106" s="34"/>
+      <c r="B106" s="34"/>
       <c r="C106" s="10"/>
       <c r="D106" s="10"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
     </row>
     <row r="107" spans="1:6">
-      <c r="A107" s="38"/>
-      <c r="B107" s="38"/>
+      <c r="A107" s="34"/>
+      <c r="B107" s="34"/>
       <c r="C107" s="10"/>
       <c r="D107" s="10"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
     </row>
     <row r="108" spans="1:6">
-      <c r="A108" s="38"/>
-      <c r="B108" s="38"/>
+      <c r="A108" s="34"/>
+      <c r="B108" s="34"/>
       <c r="C108" s="10"/>
       <c r="D108" s="10"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
     </row>
     <row r="109" spans="1:6">
-      <c r="A109" s="38"/>
-      <c r="B109" s="38"/>
+      <c r="A109" s="34"/>
+      <c r="B109" s="34"/>
       <c r="C109" s="10"/>
       <c r="D109" s="10"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
     </row>
     <row r="110" spans="1:6">
-      <c r="A110" s="38"/>
-      <c r="B110" s="38"/>
+      <c r="A110" s="34"/>
+      <c r="B110" s="34"/>
       <c r="C110" s="10"/>
       <c r="D110" s="10"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
     </row>
     <row r="111" spans="1:6">
-      <c r="A111" s="38"/>
-      <c r="B111" s="38"/>
+      <c r="A111" s="34"/>
+      <c r="B111" s="34"/>
       <c r="C111" s="10"/>
       <c r="D111" s="10"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
     </row>
     <row r="112" spans="1:6">
-      <c r="A112" s="38"/>
-      <c r="B112" s="38"/>
+      <c r="A112" s="34"/>
+      <c r="B112" s="34"/>
       <c r="C112" s="10"/>
       <c r="D112" s="10"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
     </row>
     <row r="113" spans="1:6">
-      <c r="A113" s="38"/>
-      <c r="B113" s="38"/>
+      <c r="A113" s="34"/>
+      <c r="B113" s="34"/>
       <c r="C113" s="10"/>
       <c r="D113" s="10"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
     </row>
     <row r="114" spans="1:6">
-      <c r="A114" s="38"/>
-      <c r="B114" s="38"/>
+      <c r="A114" s="34"/>
+      <c r="B114" s="34"/>
       <c r="C114" s="10"/>
       <c r="D114" s="10"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
     </row>
     <row r="115" spans="1:6">
-      <c r="A115" s="38"/>
-      <c r="B115" s="38"/>
+      <c r="A115" s="34"/>
+      <c r="B115" s="34"/>
       <c r="C115" s="10"/>
       <c r="D115" s="10"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
     </row>
     <row r="116" spans="1:6">
-      <c r="A116" s="38"/>
-      <c r="B116" s="38"/>
+      <c r="A116" s="34"/>
+      <c r="B116" s="34"/>
       <c r="C116" s="10"/>
       <c r="D116" s="10"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
     </row>
     <row r="117" spans="1:6">
-      <c r="A117" s="38"/>
-      <c r="B117" s="38"/>
+      <c r="A117" s="34"/>
+      <c r="B117" s="34"/>
       <c r="C117" s="10"/>
       <c r="D117" s="10"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
     </row>
     <row r="118" spans="1:6">
-      <c r="A118" s="38"/>
-      <c r="B118" s="38"/>
+      <c r="A118" s="34"/>
+      <c r="B118" s="34"/>
       <c r="C118" s="10"/>
       <c r="D118" s="10"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
     </row>
     <row r="119" spans="1:6">
-      <c r="A119" s="38"/>
-      <c r="B119" s="38"/>
+      <c r="A119" s="34"/>
+      <c r="B119" s="34"/>
       <c r="C119" s="10"/>
       <c r="D119" s="10"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
     </row>
     <row r="120" spans="1:6">
-      <c r="A120" s="38"/>
-      <c r="B120" s="38"/>
+      <c r="A120" s="34"/>
+      <c r="B120" s="34"/>
       <c r="C120" s="10"/>
       <c r="D120" s="10"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
     </row>
     <row r="121" spans="1:6">
-      <c r="A121" s="38"/>
-      <c r="B121" s="38"/>
+      <c r="A121" s="34"/>
+      <c r="B121" s="34"/>
       <c r="C121" s="10"/>
       <c r="D121" s="10"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
     </row>
     <row r="122" spans="1:6">
-      <c r="A122" s="38"/>
-      <c r="B122" s="38"/>
+      <c r="A122" s="34"/>
+      <c r="B122" s="34"/>
       <c r="C122" s="10"/>
       <c r="D122" s="10"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
     </row>
     <row r="123" spans="1:6">
-      <c r="A123" s="38"/>
-      <c r="B123" s="38"/>
+      <c r="A123" s="34"/>
+      <c r="B123" s="34"/>
       <c r="C123" s="10"/>
       <c r="D123" s="10"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
     </row>
     <row r="124" spans="1:6">
-      <c r="A124" s="38"/>
-      <c r="B124" s="38"/>
+      <c r="A124" s="34"/>
+      <c r="B124" s="34"/>
       <c r="C124" s="10"/>
       <c r="D124" s="10"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
     </row>
     <row r="125" spans="1:6">
-      <c r="A125" s="38"/>
-      <c r="B125" s="38"/>
+      <c r="A125" s="34"/>
+      <c r="B125" s="34"/>
       <c r="C125" s="10"/>
       <c r="D125" s="10"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
     </row>
     <row r="126" spans="1:6">
-      <c r="A126" s="38"/>
-      <c r="B126" s="38"/>
+      <c r="A126" s="34"/>
+      <c r="B126" s="34"/>
       <c r="C126" s="10"/>
       <c r="D126" s="10"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
     </row>
     <row r="127" spans="1:6">
-      <c r="A127" s="38"/>
-      <c r="B127" s="38"/>
+      <c r="A127" s="34"/>
+      <c r="B127" s="34"/>
       <c r="C127" s="10"/>
       <c r="D127" s="10"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
     </row>
     <row r="128" spans="1:6">
-      <c r="A128" s="38"/>
-      <c r="B128" s="38"/>
+      <c r="A128" s="34"/>
+      <c r="B128" s="34"/>
       <c r="C128" s="10"/>
       <c r="D128" s="10"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
     </row>
     <row r="129" spans="1:6">
-      <c r="A129" s="38"/>
-      <c r="B129" s="38"/>
+      <c r="A129" s="34"/>
+      <c r="B129" s="34"/>
       <c r="C129" s="10"/>
       <c r="D129" s="10"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
     </row>
     <row r="130" spans="1:6">
-      <c r="A130" s="38"/>
-      <c r="B130" s="38"/>
+      <c r="A130" s="34"/>
+      <c r="B130" s="34"/>
       <c r="C130" s="10"/>
       <c r="D130" s="10"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
     </row>
     <row r="131" spans="1:6">
-      <c r="A131" s="38"/>
-      <c r="B131" s="38"/>
+      <c r="A131" s="34"/>
+      <c r="B131" s="34"/>
       <c r="C131" s="10"/>
       <c r="D131" s="10"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
     </row>
     <row r="132" spans="1:6">
-      <c r="A132" s="38"/>
-      <c r="B132" s="38"/>
+      <c r="A132" s="34"/>
+      <c r="B132" s="34"/>
       <c r="C132" s="10"/>
       <c r="D132" s="10"/>
       <c r="E132" s="8"/>
@@ -3131,35 +3174,35 @@
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="36" t="s">
+      <c r="A14" s="32" t="s">
         <v>199</v>
       </c>
       <c r="B14" s="28" t="s">
         <v>200</v>
       </c>
-      <c r="C14" s="37" t="s">
+      <c r="C14" s="33" t="s">
         <v>201</v>
       </c>
       <c r="D14" s="10"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="36" t="s">
+      <c r="A15" s="32" t="s">
         <v>202</v>
       </c>
-      <c r="B15" s="38"/>
-      <c r="C15" s="37" t="s">
+      <c r="B15" s="34"/>
+      <c r="C15" s="33" t="s">
         <v>203</v>
       </c>
       <c r="D15" s="10"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="36" t="s">
+      <c r="A16" s="32" t="s">
         <v>204</v>
       </c>
       <c r="B16" s="28" t="s">
         <v>205</v>
       </c>
-      <c r="C16" s="37" t="s">
+      <c r="C16" s="33" t="s">
         <v>206</v>
       </c>
       <c r="D16" s="10"/>
@@ -3179,23 +3222,23 @@
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="39" t="s">
+      <c r="A18" s="35" t="s">
         <v>208</v>
       </c>
-      <c r="B18" s="40" t="s">
+      <c r="B18" s="36" t="s">
         <v>209</v>
       </c>
-      <c r="C18" s="41" t="s">
+      <c r="C18" s="37" t="s">
         <v>210</v>
       </c>
       <c r="D18" s="10"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="39" t="s">
+      <c r="A19" s="35" t="s">
         <v>211</v>
       </c>
-      <c r="B19" s="42"/>
-      <c r="C19" s="41" t="s">
+      <c r="B19" s="38"/>
+      <c r="C19" s="37" t="s">
         <v>212</v>
       </c>
       <c r="D19" s="10"/>

--- a/work/Оснастка/Штампы и приспособления.xlsx
+++ b/work/Оснастка/Штампы и приспособления.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="251">
   <si>
     <t>Шифр оснастки</t>
   </si>
@@ -168,9 +168,6 @@
     <t>1700-6190</t>
   </si>
   <si>
-    <t>№7089</t>
-  </si>
-  <si>
     <t xml:space="preserve">1681-6554 </t>
   </si>
   <si>
@@ -300,9 +297,6 @@
     <t>Корпус шарнира (вырубка паза)</t>
   </si>
   <si>
-    <t>8ВК616.013</t>
-  </si>
-  <si>
     <t>Магнитопровод 13</t>
   </si>
   <si>
@@ -438,9 +432,6 @@
     <t>Полка 027</t>
   </si>
   <si>
-    <t>№1889, №2089, №8131, №8228</t>
-  </si>
-  <si>
     <t>745353.033</t>
   </si>
   <si>
@@ -666,22 +657,6 @@
     <t>Гайка 004</t>
   </si>
   <si>
-    <r>
-      <t>№26-2002,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> №3803, №2102</t>
-    </r>
-  </si>
-  <si>
     <t>№8331, №6961</t>
   </si>
   <si>
@@ -697,22 +672,6 @@
     <t>Ламель 028, 028-01</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">№8187, №8237, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>№2679, №4417, №4418, №1837, №2678, №4997</t>
-    </r>
-  </si>
-  <si>
     <t>1700-5096</t>
   </si>
   <si>
@@ -744,6 +703,72 @@
   </si>
   <si>
     <t>№3948, №3947, №3946, №3198</t>
+  </si>
+  <si>
+    <t>1651-6000</t>
+  </si>
+  <si>
+    <t>741352.143</t>
+  </si>
+  <si>
+    <t>Разгонка 143 планки</t>
+  </si>
+  <si>
+    <t>№26-2002, №3803, №2102</t>
+  </si>
+  <si>
+    <t>№8187, №8237, №2679, №4417, №4418, №1837, №2678, №4997</t>
+  </si>
+  <si>
+    <t>№7-2005, №16-2005</t>
+  </si>
+  <si>
+    <t>2 +1 заказан</t>
+  </si>
+  <si>
+    <t>1700-5077</t>
+  </si>
+  <si>
+    <t>№8219, №2346, №2347, №10996</t>
+  </si>
+  <si>
+    <t>8БК940.196</t>
+  </si>
+  <si>
+    <t>Гайка 196, пробивка, вырубка</t>
+  </si>
+  <si>
+    <t>1740-5063</t>
+  </si>
+  <si>
+    <t>8БК572.027</t>
+  </si>
+  <si>
+    <t>Ламель 27</t>
+  </si>
+  <si>
+    <t>№8181, №8139, №8239</t>
+  </si>
+  <si>
+    <t>8БК616.013</t>
+  </si>
+  <si>
+    <t>№1889, №2089, №8131, №8228, №784</t>
+  </si>
+  <si>
+    <t>№7089, №33.2006</t>
+  </si>
+  <si>
+    <t>1700-5832</t>
+  </si>
+  <si>
+    <t>741253.001</t>
+  </si>
+  <si>
+    <t>Планка 001</t>
+  </si>
+  <si>
+    <t>№5942, №5598</t>
   </si>
 </sst>
 </file>
@@ -928,7 +953,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1039,6 +1064,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1049,9 +1080,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1386,24 +1414,24 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="18.75">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
     </row>
     <row r="4" spans="1:6" ht="15.75">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
@@ -1459,14 +1487,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F132"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" style="11" customWidth="1"/>
     <col min="3" max="3" width="18" style="11" customWidth="1"/>
     <col min="4" max="4" width="17.42578125" style="11" customWidth="1"/>
     <col min="5" max="5" width="16.42578125" style="9" customWidth="1"/>
@@ -1484,7 +1512,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>12</v>
@@ -1577,10 +1605,10 @@
     </row>
     <row r="7" spans="1:6" ht="30">
       <c r="A7" s="6" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>41</v>
@@ -1644,125 +1672,127 @@
         <v>49</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>50</v>
+        <v>246</v>
       </c>
       <c r="C11" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="22" t="s">
-        <v>54</v>
-      </c>
       <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
+      <c r="F11" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="12" spans="1:6" ht="45">
       <c r="A12" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>52</v>
-      </c>
       <c r="C12" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="22" t="s">
         <v>55</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>56</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
     </row>
     <row r="13" spans="1:6" ht="30">
       <c r="A13" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C13" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="22" t="s">
         <v>61</v>
-      </c>
-      <c r="D13" s="22" t="s">
-        <v>62</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
     </row>
     <row r="14" spans="1:6" ht="30">
       <c r="A14" s="22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C14" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="22" t="s">
         <v>63</v>
-      </c>
-      <c r="D14" s="22" t="s">
-        <v>64</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
     </row>
     <row r="15" spans="1:6" ht="45">
       <c r="A15" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C15" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" s="22" t="s">
         <v>71</v>
-      </c>
-      <c r="D15" s="22" t="s">
-        <v>72</v>
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
     </row>
     <row r="16" spans="1:6" ht="30">
       <c r="A16" s="22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B16" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" s="22" t="s">
         <v>77</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D16" s="22" t="s">
-        <v>78</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C17" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17" s="22" t="s">
         <v>74</v>
-      </c>
-      <c r="D17" s="22" t="s">
-        <v>75</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
     </row>
     <row r="18" spans="1:6" ht="30">
       <c r="A18" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C18" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" s="22" t="s">
         <v>82</v>
-      </c>
-      <c r="D18" s="22" t="s">
-        <v>83</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="8">
@@ -1771,16 +1801,16 @@
     </row>
     <row r="19" spans="1:6" ht="30">
       <c r="A19" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C19" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="D19" s="22" t="s">
         <v>84</v>
-      </c>
-      <c r="D19" s="22" t="s">
-        <v>85</v>
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="8">
@@ -1789,16 +1819,16 @@
     </row>
     <row r="20" spans="1:6" ht="45">
       <c r="A20" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="8">
@@ -1807,16 +1837,16 @@
     </row>
     <row r="21" spans="1:6" ht="30">
       <c r="A21" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E21" s="8"/>
       <c r="F21" s="8">
@@ -1825,34 +1855,34 @@
     </row>
     <row r="22" spans="1:6" ht="30">
       <c r="A22" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>140</v>
+        <v>245</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>94</v>
+        <v>244</v>
       </c>
       <c r="D22" s="22" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E22" s="8"/>
       <c r="F22" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="45">
       <c r="A23" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B23" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="B23" s="7" t="s">
-        <v>92</v>
-      </c>
       <c r="C23" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D23" s="22" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E23" s="8"/>
       <c r="F23" s="8">
@@ -1861,16 +1891,16 @@
     </row>
     <row r="24" spans="1:6" ht="30">
       <c r="A24" s="20" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D24" s="22" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E24" s="8"/>
       <c r="F24" s="8">
@@ -1879,16 +1909,16 @@
     </row>
     <row r="25" spans="1:6" ht="30">
       <c r="A25" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D25" s="22" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E25" s="8"/>
       <c r="F25" s="8">
@@ -1897,16 +1927,16 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D26" s="22" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E26" s="8"/>
       <c r="F26" s="8">
@@ -1915,16 +1945,16 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="23" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D27" s="22" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E27" s="8"/>
       <c r="F27" s="8">
@@ -1933,16 +1963,16 @@
     </row>
     <row r="28" spans="1:6" ht="30">
       <c r="A28" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D28" s="22" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E28" s="8"/>
       <c r="F28" s="8">
@@ -1951,16 +1981,16 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B29" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="D29" s="22" t="s">
         <v>123</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="D29" s="22" t="s">
-        <v>125</v>
       </c>
       <c r="E29" s="8"/>
       <c r="F29" s="8">
@@ -1969,16 +1999,16 @@
     </row>
     <row r="30" spans="1:6" ht="30">
       <c r="A30" s="6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D30" s="22" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E30" s="8"/>
       <c r="F30" s="8">
@@ -1987,16 +2017,16 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="23" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D31" s="22" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E31" s="8"/>
       <c r="F31" s="8">
@@ -2005,16 +2035,16 @@
     </row>
     <row r="32" spans="1:6" ht="30">
       <c r="A32" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D32" s="22" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E32" s="8"/>
       <c r="F32" s="8">
@@ -2023,16 +2053,16 @@
     </row>
     <row r="33" spans="1:6" ht="30">
       <c r="A33" s="6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D33" s="22" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E33" s="8"/>
       <c r="F33" s="8">
@@ -2041,16 +2071,16 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="23" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B34" s="21" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D34" s="22" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E34" s="8"/>
       <c r="F34" s="8">
@@ -2059,16 +2089,16 @@
     </row>
     <row r="35" spans="1:6" ht="30">
       <c r="A35" s="23" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D35" s="22" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E35" s="8"/>
       <c r="F35" s="8">
@@ -2077,16 +2107,16 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="23" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B36" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C36" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="D36" s="22" t="s">
         <v>150</v>
-      </c>
-      <c r="D36" s="22" t="s">
-        <v>153</v>
       </c>
       <c r="E36" s="8"/>
       <c r="F36" s="8">
@@ -2095,16 +2125,16 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="22" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D37" s="22" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E37" s="8"/>
       <c r="F37" s="8">
@@ -2113,47 +2143,47 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="22" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D38" s="22" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E38" s="8"/>
       <c r="F38" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="30">
       <c r="A39" s="6" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C39" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="D39" s="22" t="s">
         <v>161</v>
-      </c>
-      <c r="D39" s="22" t="s">
-        <v>164</v>
       </c>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
     </row>
     <row r="40" spans="1:6" ht="60">
       <c r="A40" s="25" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B40" s="26" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C40" s="39" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D40" s="22" t="s">
         <v>42</v>
@@ -2163,16 +2193,16 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="B41" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="C41" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="D41" s="22" t="s">
         <v>169</v>
-      </c>
-      <c r="B41" s="28" t="s">
-        <v>170</v>
-      </c>
-      <c r="C41" s="22" t="s">
-        <v>171</v>
-      </c>
-      <c r="D41" s="22" t="s">
-        <v>172</v>
       </c>
       <c r="E41" s="8"/>
       <c r="F41" s="8">
@@ -2181,32 +2211,32 @@
     </row>
     <row r="42" spans="1:6" ht="30">
       <c r="A42" s="6" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D42" s="22" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
     </row>
     <row r="43" spans="1:6" ht="30">
       <c r="A43" s="27" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B43" s="28" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
@@ -2216,7 +2246,7 @@
         <v>20</v>
       </c>
       <c r="B44" s="28" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C44" s="10" t="s">
         <v>34</v>
@@ -2231,16 +2261,16 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="27" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B45" s="28" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E45" s="8"/>
       <c r="F45" s="8">
@@ -2249,727 +2279,769 @@
     </row>
     <row r="46" spans="1:6" ht="60">
       <c r="A46" s="27" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B46" s="28" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="27" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B47" s="28" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
+      <c r="F47" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="B48" s="44" t="s">
-        <v>227</v>
-      </c>
-      <c r="C48" s="44" t="s">
-        <v>228</v>
+        <v>221</v>
+      </c>
+      <c r="B48" s="40" t="s">
+        <v>222</v>
+      </c>
+      <c r="C48" s="40" t="s">
+        <v>223</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
     </row>
     <row r="49" spans="1:6" ht="30">
       <c r="A49" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="B49" s="44" t="s">
-        <v>233</v>
-      </c>
-      <c r="C49" s="44" t="s">
-        <v>231</v>
+        <v>225</v>
+      </c>
+      <c r="B49" s="40" t="s">
+        <v>228</v>
+      </c>
+      <c r="C49" s="40" t="s">
+        <v>226</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
     </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="34"/>
-      <c r="B50" s="34"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="10"/>
+    <row r="50" spans="1:6" ht="30">
+      <c r="A50" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>231</v>
+      </c>
       <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="34"/>
-      <c r="B51" s="34"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
+      <c r="F50" s="8" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="45">
+      <c r="A51" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>239</v>
+      </c>
       <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="34"/>
-      <c r="B52" s="34"/>
-      <c r="C52" s="10"/>
-      <c r="D52" s="10"/>
+      <c r="F51" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="30">
+      <c r="A52" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>242</v>
+      </c>
       <c r="E52" s="8"/>
-      <c r="F52" s="8"/>
+      <c r="F52" s="8">
+        <v>3</v>
+      </c>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="34"/>
-      <c r="B53" s="34"/>
-      <c r="C53" s="10"/>
-      <c r="D53" s="10"/>
+      <c r="A53" s="41" t="s">
+        <v>247</v>
+      </c>
+      <c r="B53" s="40" t="s">
+        <v>250</v>
+      </c>
+      <c r="C53" s="41" t="s">
+        <v>248</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>249</v>
+      </c>
       <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
+      <c r="F53" s="8">
+        <v>2</v>
+      </c>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="34"/>
-      <c r="B54" s="34"/>
+      <c r="A54" s="8"/>
+      <c r="B54" s="10"/>
       <c r="C54" s="10"/>
       <c r="D54" s="10"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="34"/>
-      <c r="B55" s="34"/>
+      <c r="A55" s="8"/>
+      <c r="B55" s="10"/>
       <c r="C55" s="10"/>
       <c r="D55" s="10"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="34"/>
-      <c r="B56" s="34"/>
+      <c r="A56" s="8"/>
+      <c r="B56" s="10"/>
       <c r="C56" s="10"/>
       <c r="D56" s="10"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="34"/>
-      <c r="B57" s="34"/>
+      <c r="A57" s="8"/>
+      <c r="B57" s="10"/>
       <c r="C57" s="10"/>
       <c r="D57" s="10"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="34"/>
-      <c r="B58" s="34"/>
+      <c r="A58" s="8"/>
+      <c r="B58" s="10"/>
       <c r="C58" s="10"/>
       <c r="D58" s="10"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="34"/>
-      <c r="B59" s="34"/>
+      <c r="A59" s="8"/>
+      <c r="B59" s="10"/>
       <c r="C59" s="10"/>
       <c r="D59" s="10"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="34"/>
-      <c r="B60" s="34"/>
+      <c r="A60" s="8"/>
+      <c r="B60" s="10"/>
       <c r="C60" s="10"/>
       <c r="D60" s="10"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="34"/>
-      <c r="B61" s="34"/>
+      <c r="A61" s="8"/>
+      <c r="B61" s="10"/>
       <c r="C61" s="10"/>
       <c r="D61" s="10"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="34"/>
-      <c r="B62" s="34"/>
+      <c r="A62" s="8"/>
+      <c r="B62" s="10"/>
       <c r="C62" s="10"/>
       <c r="D62" s="10"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="34"/>
-      <c r="B63" s="34"/>
+      <c r="A63" s="8"/>
+      <c r="B63" s="10"/>
       <c r="C63" s="10"/>
       <c r="D63" s="10"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="34"/>
-      <c r="B64" s="34"/>
+      <c r="A64" s="8"/>
+      <c r="B64" s="10"/>
       <c r="C64" s="10"/>
       <c r="D64" s="10"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="34"/>
-      <c r="B65" s="34"/>
+      <c r="A65" s="8"/>
+      <c r="B65" s="10"/>
       <c r="C65" s="10"/>
       <c r="D65" s="10"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="34"/>
-      <c r="B66" s="34"/>
+      <c r="A66" s="8"/>
+      <c r="B66" s="10"/>
       <c r="C66" s="10"/>
       <c r="D66" s="10"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="34"/>
-      <c r="B67" s="34"/>
+      <c r="A67" s="8"/>
+      <c r="B67" s="10"/>
       <c r="C67" s="10"/>
       <c r="D67" s="10"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="34"/>
-      <c r="B68" s="34"/>
+      <c r="A68" s="8"/>
+      <c r="B68" s="10"/>
       <c r="C68" s="10"/>
       <c r="D68" s="10"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="34"/>
-      <c r="B69" s="34"/>
+      <c r="A69" s="8"/>
+      <c r="B69" s="10"/>
       <c r="C69" s="10"/>
       <c r="D69" s="10"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" s="34"/>
-      <c r="B70" s="34"/>
+      <c r="A70" s="8"/>
+      <c r="B70" s="10"/>
       <c r="C70" s="10"/>
       <c r="D70" s="10"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
     </row>
     <row r="71" spans="1:6">
-      <c r="A71" s="34"/>
-      <c r="B71" s="34"/>
+      <c r="A71" s="8"/>
+      <c r="B71" s="10"/>
       <c r="C71" s="10"/>
       <c r="D71" s="10"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
     </row>
     <row r="72" spans="1:6">
-      <c r="A72" s="34"/>
-      <c r="B72" s="34"/>
+      <c r="A72" s="8"/>
+      <c r="B72" s="10"/>
       <c r="C72" s="10"/>
       <c r="D72" s="10"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
     </row>
     <row r="73" spans="1:6">
-      <c r="A73" s="34"/>
-      <c r="B73" s="34"/>
+      <c r="A73" s="8"/>
+      <c r="B73" s="10"/>
       <c r="C73" s="10"/>
       <c r="D73" s="10"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
     </row>
     <row r="74" spans="1:6">
-      <c r="A74" s="34"/>
-      <c r="B74" s="34"/>
+      <c r="A74" s="8"/>
+      <c r="B74" s="10"/>
       <c r="C74" s="10"/>
       <c r="D74" s="10"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
     </row>
     <row r="75" spans="1:6">
-      <c r="A75" s="34"/>
-      <c r="B75" s="34"/>
+      <c r="A75" s="8"/>
+      <c r="B75" s="10"/>
       <c r="C75" s="10"/>
       <c r="D75" s="10"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
     </row>
     <row r="76" spans="1:6">
-      <c r="A76" s="34"/>
-      <c r="B76" s="34"/>
+      <c r="A76" s="8"/>
+      <c r="B76" s="10"/>
       <c r="C76" s="10"/>
       <c r="D76" s="10"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
     </row>
     <row r="77" spans="1:6">
-      <c r="A77" s="34"/>
-      <c r="B77" s="34"/>
+      <c r="A77" s="8"/>
+      <c r="B77" s="10"/>
       <c r="C77" s="10"/>
       <c r="D77" s="10"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
     </row>
     <row r="78" spans="1:6">
-      <c r="A78" s="34"/>
-      <c r="B78" s="34"/>
+      <c r="A78" s="8"/>
+      <c r="B78" s="10"/>
       <c r="C78" s="10"/>
       <c r="D78" s="10"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
     </row>
     <row r="79" spans="1:6">
-      <c r="A79" s="34"/>
-      <c r="B79" s="34"/>
+      <c r="A79" s="8"/>
+      <c r="B79" s="10"/>
       <c r="C79" s="10"/>
       <c r="D79" s="10"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
     </row>
     <row r="80" spans="1:6">
-      <c r="A80" s="34"/>
-      <c r="B80" s="34"/>
+      <c r="A80" s="8"/>
+      <c r="B80" s="10"/>
       <c r="C80" s="10"/>
       <c r="D80" s="10"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
     </row>
     <row r="81" spans="1:6">
-      <c r="A81" s="34"/>
-      <c r="B81" s="34"/>
+      <c r="A81" s="8"/>
+      <c r="B81" s="10"/>
       <c r="C81" s="10"/>
       <c r="D81" s="10"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
     </row>
     <row r="82" spans="1:6">
-      <c r="A82" s="34"/>
-      <c r="B82" s="34"/>
+      <c r="A82" s="8"/>
+      <c r="B82" s="10"/>
       <c r="C82" s="10"/>
       <c r="D82" s="10"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
     </row>
     <row r="83" spans="1:6">
-      <c r="A83" s="34"/>
-      <c r="B83" s="34"/>
+      <c r="A83" s="8"/>
+      <c r="B83" s="10"/>
       <c r="C83" s="10"/>
       <c r="D83" s="10"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
     </row>
     <row r="84" spans="1:6">
-      <c r="A84" s="34"/>
-      <c r="B84" s="34"/>
+      <c r="A84" s="8"/>
+      <c r="B84" s="10"/>
       <c r="C84" s="10"/>
       <c r="D84" s="10"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
     </row>
     <row r="85" spans="1:6">
-      <c r="A85" s="34"/>
-      <c r="B85" s="34"/>
+      <c r="A85" s="8"/>
+      <c r="B85" s="10"/>
       <c r="C85" s="10"/>
       <c r="D85" s="10"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
     </row>
     <row r="86" spans="1:6">
-      <c r="A86" s="34"/>
-      <c r="B86" s="34"/>
+      <c r="A86" s="8"/>
+      <c r="B86" s="10"/>
       <c r="C86" s="10"/>
       <c r="D86" s="10"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
     </row>
     <row r="87" spans="1:6">
-      <c r="A87" s="34"/>
-      <c r="B87" s="34"/>
+      <c r="A87" s="8"/>
+      <c r="B87" s="10"/>
       <c r="C87" s="10"/>
       <c r="D87" s="10"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
     </row>
     <row r="88" spans="1:6">
-      <c r="A88" s="34"/>
-      <c r="B88" s="34"/>
+      <c r="A88" s="8"/>
+      <c r="B88" s="10"/>
       <c r="C88" s="10"/>
       <c r="D88" s="10"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
     </row>
     <row r="89" spans="1:6">
-      <c r="A89" s="34"/>
-      <c r="B89" s="34"/>
+      <c r="A89" s="8"/>
+      <c r="B89" s="10"/>
       <c r="C89" s="10"/>
       <c r="D89" s="10"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
     </row>
     <row r="90" spans="1:6">
-      <c r="A90" s="34"/>
-      <c r="B90" s="34"/>
+      <c r="A90" s="8"/>
+      <c r="B90" s="10"/>
       <c r="C90" s="10"/>
       <c r="D90" s="10"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
     </row>
     <row r="91" spans="1:6">
-      <c r="A91" s="34"/>
-      <c r="B91" s="34"/>
+      <c r="A91" s="8"/>
+      <c r="B91" s="10"/>
       <c r="C91" s="10"/>
       <c r="D91" s="10"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
     </row>
     <row r="92" spans="1:6">
-      <c r="A92" s="34"/>
-      <c r="B92" s="34"/>
+      <c r="A92" s="8"/>
+      <c r="B92" s="10"/>
       <c r="C92" s="10"/>
       <c r="D92" s="10"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
     </row>
     <row r="93" spans="1:6">
-      <c r="A93" s="34"/>
-      <c r="B93" s="34"/>
+      <c r="A93" s="8"/>
+      <c r="B93" s="10"/>
       <c r="C93" s="10"/>
       <c r="D93" s="10"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
     </row>
     <row r="94" spans="1:6">
-      <c r="A94" s="34"/>
-      <c r="B94" s="34"/>
+      <c r="A94" s="8"/>
+      <c r="B94" s="10"/>
       <c r="C94" s="10"/>
       <c r="D94" s="10"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
     </row>
     <row r="95" spans="1:6">
-      <c r="A95" s="34"/>
-      <c r="B95" s="34"/>
+      <c r="A95" s="8"/>
+      <c r="B95" s="10"/>
       <c r="C95" s="10"/>
       <c r="D95" s="10"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
     </row>
     <row r="96" spans="1:6">
-      <c r="A96" s="34"/>
-      <c r="B96" s="34"/>
+      <c r="A96" s="8"/>
+      <c r="B96" s="10"/>
       <c r="C96" s="10"/>
       <c r="D96" s="10"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
     </row>
     <row r="97" spans="1:6">
-      <c r="A97" s="34"/>
-      <c r="B97" s="34"/>
+      <c r="A97" s="8"/>
+      <c r="B97" s="10"/>
       <c r="C97" s="10"/>
       <c r="D97" s="10"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
     </row>
     <row r="98" spans="1:6">
-      <c r="A98" s="34"/>
-      <c r="B98" s="34"/>
+      <c r="A98" s="8"/>
+      <c r="B98" s="10"/>
       <c r="C98" s="10"/>
       <c r="D98" s="10"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
     </row>
     <row r="99" spans="1:6">
-      <c r="A99" s="34"/>
-      <c r="B99" s="34"/>
+      <c r="A99" s="8"/>
+      <c r="B99" s="10"/>
       <c r="C99" s="10"/>
       <c r="D99" s="10"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
     </row>
     <row r="100" spans="1:6">
-      <c r="A100" s="34"/>
-      <c r="B100" s="34"/>
+      <c r="A100" s="8"/>
+      <c r="B100" s="10"/>
       <c r="C100" s="10"/>
       <c r="D100" s="10"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
     </row>
     <row r="101" spans="1:6">
-      <c r="A101" s="34"/>
-      <c r="B101" s="34"/>
+      <c r="A101" s="8"/>
+      <c r="B101" s="10"/>
       <c r="C101" s="10"/>
       <c r="D101" s="10"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
     </row>
     <row r="102" spans="1:6">
-      <c r="A102" s="34"/>
-      <c r="B102" s="34"/>
+      <c r="A102" s="8"/>
+      <c r="B102" s="10"/>
       <c r="C102" s="10"/>
       <c r="D102" s="10"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
     </row>
     <row r="103" spans="1:6">
-      <c r="A103" s="34"/>
-      <c r="B103" s="34"/>
+      <c r="A103" s="8"/>
+      <c r="B103" s="10"/>
       <c r="C103" s="10"/>
       <c r="D103" s="10"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
     </row>
     <row r="104" spans="1:6">
-      <c r="A104" s="34"/>
-      <c r="B104" s="34"/>
+      <c r="A104" s="8"/>
+      <c r="B104" s="10"/>
       <c r="C104" s="10"/>
       <c r="D104" s="10"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
     </row>
     <row r="105" spans="1:6">
-      <c r="A105" s="34"/>
-      <c r="B105" s="34"/>
+      <c r="A105" s="8"/>
+      <c r="B105" s="10"/>
       <c r="C105" s="10"/>
       <c r="D105" s="10"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
     </row>
     <row r="106" spans="1:6">
-      <c r="A106" s="34"/>
-      <c r="B106" s="34"/>
+      <c r="A106" s="8"/>
+      <c r="B106" s="10"/>
       <c r="C106" s="10"/>
       <c r="D106" s="10"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
     </row>
     <row r="107" spans="1:6">
-      <c r="A107" s="34"/>
-      <c r="B107" s="34"/>
+      <c r="A107" s="8"/>
+      <c r="B107" s="10"/>
       <c r="C107" s="10"/>
       <c r="D107" s="10"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
     </row>
     <row r="108" spans="1:6">
-      <c r="A108" s="34"/>
-      <c r="B108" s="34"/>
+      <c r="A108" s="8"/>
+      <c r="B108" s="10"/>
       <c r="C108" s="10"/>
       <c r="D108" s="10"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
     </row>
     <row r="109" spans="1:6">
-      <c r="A109" s="34"/>
-      <c r="B109" s="34"/>
+      <c r="A109" s="8"/>
+      <c r="B109" s="10"/>
       <c r="C109" s="10"/>
       <c r="D109" s="10"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
     </row>
     <row r="110" spans="1:6">
-      <c r="A110" s="34"/>
-      <c r="B110" s="34"/>
+      <c r="A110" s="8"/>
+      <c r="B110" s="10"/>
       <c r="C110" s="10"/>
       <c r="D110" s="10"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
     </row>
     <row r="111" spans="1:6">
-      <c r="A111" s="34"/>
-      <c r="B111" s="34"/>
+      <c r="A111" s="8"/>
+      <c r="B111" s="10"/>
       <c r="C111" s="10"/>
       <c r="D111" s="10"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
     </row>
     <row r="112" spans="1:6">
-      <c r="A112" s="34"/>
-      <c r="B112" s="34"/>
+      <c r="A112" s="8"/>
+      <c r="B112" s="10"/>
       <c r="C112" s="10"/>
       <c r="D112" s="10"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
     </row>
     <row r="113" spans="1:6">
-      <c r="A113" s="34"/>
-      <c r="B113" s="34"/>
+      <c r="A113" s="8"/>
+      <c r="B113" s="10"/>
       <c r="C113" s="10"/>
       <c r="D113" s="10"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
     </row>
     <row r="114" spans="1:6">
-      <c r="A114" s="34"/>
-      <c r="B114" s="34"/>
+      <c r="A114" s="8"/>
+      <c r="B114" s="10"/>
       <c r="C114" s="10"/>
       <c r="D114" s="10"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
     </row>
     <row r="115" spans="1:6">
-      <c r="A115" s="34"/>
-      <c r="B115" s="34"/>
+      <c r="A115" s="8"/>
+      <c r="B115" s="10"/>
       <c r="C115" s="10"/>
       <c r="D115" s="10"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
     </row>
     <row r="116" spans="1:6">
-      <c r="A116" s="34"/>
-      <c r="B116" s="34"/>
+      <c r="A116" s="8"/>
+      <c r="B116" s="10"/>
       <c r="C116" s="10"/>
       <c r="D116" s="10"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
     </row>
     <row r="117" spans="1:6">
-      <c r="A117" s="34"/>
-      <c r="B117" s="34"/>
+      <c r="A117" s="8"/>
+      <c r="B117" s="10"/>
       <c r="C117" s="10"/>
       <c r="D117" s="10"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
     </row>
     <row r="118" spans="1:6">
-      <c r="A118" s="34"/>
-      <c r="B118" s="34"/>
+      <c r="A118" s="8"/>
+      <c r="B118" s="10"/>
       <c r="C118" s="10"/>
       <c r="D118" s="10"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
     </row>
     <row r="119" spans="1:6">
-      <c r="A119" s="34"/>
-      <c r="B119" s="34"/>
+      <c r="A119" s="8"/>
+      <c r="B119" s="10"/>
       <c r="C119" s="10"/>
       <c r="D119" s="10"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
     </row>
     <row r="120" spans="1:6">
-      <c r="A120" s="34"/>
-      <c r="B120" s="34"/>
+      <c r="A120" s="8"/>
+      <c r="B120" s="10"/>
       <c r="C120" s="10"/>
       <c r="D120" s="10"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
     </row>
     <row r="121" spans="1:6">
-      <c r="A121" s="34"/>
-      <c r="B121" s="34"/>
+      <c r="A121" s="8"/>
+      <c r="B121" s="10"/>
       <c r="C121" s="10"/>
       <c r="D121" s="10"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
     </row>
     <row r="122" spans="1:6">
-      <c r="A122" s="34"/>
-      <c r="B122" s="34"/>
+      <c r="A122" s="8"/>
+      <c r="B122" s="10"/>
       <c r="C122" s="10"/>
       <c r="D122" s="10"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
     </row>
     <row r="123" spans="1:6">
-      <c r="A123" s="34"/>
-      <c r="B123" s="34"/>
+      <c r="A123" s="8"/>
+      <c r="B123" s="10"/>
       <c r="C123" s="10"/>
       <c r="D123" s="10"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
     </row>
     <row r="124" spans="1:6">
-      <c r="A124" s="34"/>
-      <c r="B124" s="34"/>
+      <c r="A124" s="8"/>
+      <c r="B124" s="10"/>
       <c r="C124" s="10"/>
       <c r="D124" s="10"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
     </row>
     <row r="125" spans="1:6">
-      <c r="A125" s="34"/>
-      <c r="B125" s="34"/>
+      <c r="A125" s="8"/>
+      <c r="B125" s="10"/>
       <c r="C125" s="10"/>
       <c r="D125" s="10"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
     </row>
     <row r="126" spans="1:6">
-      <c r="A126" s="34"/>
-      <c r="B126" s="34"/>
+      <c r="A126" s="8"/>
+      <c r="B126" s="10"/>
       <c r="C126" s="10"/>
       <c r="D126" s="10"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
     </row>
     <row r="127" spans="1:6">
-      <c r="A127" s="34"/>
-      <c r="B127" s="34"/>
+      <c r="A127" s="8"/>
+      <c r="B127" s="10"/>
       <c r="C127" s="10"/>
       <c r="D127" s="10"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
     </row>
     <row r="128" spans="1:6">
-      <c r="A128" s="34"/>
-      <c r="B128" s="34"/>
+      <c r="A128" s="8"/>
+      <c r="B128" s="10"/>
       <c r="C128" s="10"/>
       <c r="D128" s="10"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
     </row>
     <row r="129" spans="1:6">
-      <c r="A129" s="34"/>
-      <c r="B129" s="34"/>
+      <c r="A129" s="8"/>
+      <c r="B129" s="10"/>
       <c r="C129" s="10"/>
       <c r="D129" s="10"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
     </row>
     <row r="130" spans="1:6">
-      <c r="A130" s="34"/>
-      <c r="B130" s="34"/>
+      <c r="A130" s="8"/>
+      <c r="B130" s="10"/>
       <c r="C130" s="10"/>
       <c r="D130" s="10"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
     </row>
     <row r="131" spans="1:6">
-      <c r="A131" s="34"/>
-      <c r="B131" s="34"/>
+      <c r="A131" s="8"/>
+      <c r="B131" s="10"/>
       <c r="C131" s="10"/>
       <c r="D131" s="10"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
     </row>
     <row r="132" spans="1:6">
-      <c r="A132" s="34"/>
-      <c r="B132" s="34"/>
+      <c r="A132" s="8"/>
+      <c r="B132" s="10"/>
       <c r="C132" s="10"/>
       <c r="D132" s="10"/>
       <c r="E132" s="8"/>
@@ -2985,8 +3057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D102"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3008,61 +3080,61 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="17" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D2" s="10"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="6" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -3079,167 +3151,167 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="6" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="6" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D8" s="14"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="6" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="6" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:4" s="29" customFormat="1">
       <c r="A11" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="6" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="45">
       <c r="A13" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="32" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C14" s="33" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D14" s="10"/>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="32" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B15" s="34"/>
       <c r="C15" s="33" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D15" s="10"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="32" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D16" s="10"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="35" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B18" s="36" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C18" s="37" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D18" s="10"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="35" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B19" s="38"/>
       <c r="C19" s="37" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D19" s="10"/>
     </row>
